--- a/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-externo.xlsx
+++ b/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-externo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5938826-179A-4B98-8972-E6CB6888D348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9B8181-0CCA-4B47-A2F0-2ABF32C935E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -620,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="133">
   <si>
     <t>Ambiente</t>
   </si>
@@ -1016,6 +1024,9 @@
   </si>
   <si>
     <t>MDT-victor calebe</t>
+  </si>
+  <si>
+    <t>faltou os testes</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1553,7 @@
                   <c:v>0.8571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.77272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2046,9 +2057,9 @@
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="21" t="e">
+      <c r="B4" s="21">
         <f>'Ver-Elaboração1'!$F$2</f>
-        <v>#DIV/0!</v>
+        <v>0.77272727272727271</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2085,7 +2096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2805,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2834,14 +2845,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="35"/>
-      <c r="C2" s="17"/>
+      <c r="C2" s="28">
+        <v>44193</v>
+      </c>
       <c r="D2" s="40" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="41"/>
-      <c r="F2" s="22" t="e">
+      <c r="F2" s="22">
         <f>COUNTIF(D5:D48,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
-        <v>#DIV/0!</v>
+        <v>0.77272727272727271</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
@@ -2849,7 +2862,9 @@
         <v>26</v>
       </c>
       <c r="B3" s="35"/>
-      <c r="C3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="D3" s="37" t="s">
         <v>45</v>
       </c>
@@ -2896,7 +2911,9 @@
       <c r="C6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
@@ -2918,7 +2935,9 @@
       <c r="C8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
@@ -2940,7 +2959,9 @@
       <c r="C10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
@@ -2952,7 +2973,9 @@
       <c r="C11" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
@@ -2964,7 +2987,9 @@
       <c r="C12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
@@ -2976,7 +3001,9 @@
       <c r="C13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
@@ -2998,7 +3025,9 @@
       <c r="C15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
@@ -3020,7 +3049,9 @@
       <c r="C17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
@@ -3044,7 +3075,9 @@
       <c r="C19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
@@ -3056,7 +3089,9 @@
       <c r="C20" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
@@ -3068,7 +3103,9 @@
       <c r="C21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
@@ -3080,7 +3117,9 @@
       <c r="C22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
@@ -3092,7 +3131,9 @@
       <c r="C23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
@@ -3114,7 +3155,9 @@
       <c r="C25" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
@@ -3126,7 +3169,9 @@
       <c r="C26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
@@ -3150,8 +3195,12 @@
       <c r="C28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="30">
@@ -3162,7 +3211,9 @@
       <c r="C29" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
@@ -3174,7 +3225,9 @@
       <c r="C30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
@@ -3186,7 +3239,9 @@
       <c r="C31" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
@@ -3198,7 +3253,9 @@
       <c r="C32" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
@@ -3210,7 +3267,9 @@
       <c r="C33" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
@@ -3234,7 +3293,9 @@
       <c r="C35" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
@@ -3246,7 +3307,9 @@
       <c r="C36" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
@@ -3258,7 +3321,9 @@
       <c r="C37" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
@@ -3270,7 +3335,9 @@
       <c r="C38" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
@@ -3282,7 +3349,9 @@
       <c r="C39" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
@@ -3294,7 +3363,9 @@
       <c r="C40" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
@@ -3318,7 +3389,9 @@
       <c r="C42" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
@@ -3330,7 +3403,9 @@
       <c r="C43" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
@@ -3342,7 +3417,9 @@
       <c r="C44" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
@@ -3364,7 +3441,9 @@
       <c r="C46" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
@@ -3376,7 +3455,9 @@
       <c r="C47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
@@ -3388,7 +3469,9 @@
       <c r="C48" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
@@ -4072,17 +4155,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D49" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -4739,6 +4822,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:F1"/>
@@ -4746,11 +4834,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D48" xr:uid="{00000000-0002-0000-0400-000000000000}">

--- a/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-externo.xlsx
+++ b/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-externo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9B8181-0CCA-4B47-A2F0-2ABF32C935E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0FB927-6702-457B-B9A4-15F988706D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1553,7 +1553,7 @@
                   <c:v>0.8571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77272727272727271</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B4" s="21">
         <f>'Ver-Elaboração1'!$F$2</f>
-        <v>0.77272727272727271</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2817,7 +2817,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2854,7 +2854,7 @@
       <c r="E2" s="41"/>
       <c r="F2" s="22">
         <f>COUNTIF(D5:D48,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
-        <v>0.77272727272727271</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
@@ -2912,7 +2912,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -2960,7 +2960,7 @@
         <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -3050,7 +3050,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -4155,17 +4155,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D49" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -4822,11 +4822,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:F1"/>
@@ -4834,6 +4829,11 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D48" xr:uid="{00000000-0002-0000-0400-000000000000}">
